--- a/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
+++ b/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000-Study\800-GitKraken\DanmukuGame_Resetv1.0\DanmukuGame_Resetv1.0\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D301E796-17E7-40D9-9C89-B4C76369854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3B2E7-0AA2-42D5-A682-74F5D67E8E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>"Airplane5"</t>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -394,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="1" sqref="E12 I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,7 +413,7 @@
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +429,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -438,8 +449,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -455,8 +469,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -472,8 +489,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -489,8 +509,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -506,8 +529,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -522,6 +548,9 @@
       </c>
       <c r="E8">
         <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
+++ b/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000-Study\800-GitKraken\DanmukuGame_Resetv1.0\DanmukuGame_Resetv1.0\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3B2E7-0AA2-42D5-A682-74F5D67E8E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA21B1-E33E-4396-92DF-6AA1EA8DAA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
+++ b/DanmukuGame_Resetv1.0/Assets/ArtRes/Excel/PlaneInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\000-Study\800-GitKraken\DanmukuGame_Resetv1.0\DanmukuGame_Resetv1.0\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA21B1-E33E-4396-92DF-6AA1EA8DAA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33191FCB-E54A-427B-BC9A-785684993A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,7 +421,7 @@
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +440,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -452,8 +463,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -472,8 +486,11 @@
       <c r="F4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -492,8 +509,11 @@
       <c r="F5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -512,8 +532,11 @@
       <c r="F6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -532,8 +555,11 @@
       <c r="F7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -551,6 +577,9 @@
       </c>
       <c r="F8">
         <v>0.15</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
